--- a/ZSB_Mobile/AEMS/execution.xlsx
+++ b/ZSB_Mobile/AEMS/execution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rk1277\Desktop\ZSB_Automation\ZSB_Mobile\TestExecution\AEMS reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zebra-my.sharepoint.com/personal/jd4936_zebra_com1/Documents/Documents/AirTest_ZSB_Mobile_Automation/ZSB_Mobile/AEMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBD7479-A1E3-4E61-8C7D-DB861A918773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1BBD7479-A1E3-4E61-8C7D-DB861A918773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6790A79-BEEE-4F6C-B50E-8F8C6E29A654}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9148005-BF2D-4AA5-9190-7D9189103EBD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{C9148005-BF2D-4AA5-9190-7D9189103EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,16 +44,16 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>Windows 11</t>
-  </si>
-  <si>
-    <t>RK1277</t>
-  </si>
-  <si>
     <t>V95.1.8.73509</t>
   </si>
   <si>
     <t>firmwarename</t>
+  </si>
+  <si>
+    <t>JD4936</t>
+  </si>
+  <si>
+    <t>Sonoma 14</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,18 +498,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
